--- a/SPM_Assignment1_CodeCampus.xlsx
+++ b/SPM_Assignment1_CodeCampus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enes Tekne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yci3ib\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A631E-B50F-4E36-B832-6190651DE936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9104693-4598-4D27-BAB5-129C7761B41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{AB7B4C4F-68FF-4192-840D-56F4DAC5D3F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB7B4C4F-68FF-4192-840D-56F4DAC5D3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Team &amp; Roles" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Project Manager</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>7 Hours</t>
+  </si>
+  <si>
+    <t>The Campus Internship &amp; Job Tracking System is a centralized web-based platform designed to connect university students with companies offering internship and job opportunities. The system addresses the problem of students spending excessive time searching across multiple platforms while companies struggle to reach qualified campus talent directly. It serves senior university students, company HR representatives, and career center administrators. The platform enables students to create profiles and upload CVs, allows companies to post and manage job listings, provides search and filtering features for opportunities, and includes an administrative approval panel to ensure the reliability and safety of job postings.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -528,6 +531,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,15 +1175,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K008000 RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3FDCB7-0C77-4105-9F93-2958F0FE9947}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,8 +1227,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K008000 RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1317,6 +1335,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K008000 RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1327,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6976E75-C248-4B32-A1EF-F10A12DFC560}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1450,5 +1471,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K008000 RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ec3fe26b-7d76-4b37-8465-ecc347eca3f0}" enabled="1" method="Standard" siteId="{46c4de19-0ffc-4c54-aa86-ee7274afa9d7}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>